--- a/Assets/Excel/Test.xlsx
+++ b/Assets/Excel/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YK\Graduation\Graduation-Project\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A55F7E-B720-4CE8-A5C6-78167343E3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB02CCE-E171-46C4-9C53-13784B6A3ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22170" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +81,50 @@
   </si>
   <si>
     <t>12|18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试整形数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试字符串数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d|2b|3bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1我ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupStringTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a||abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,61 +472,82 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>0.5</v>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -500,7 +561,13 @@
         <v>1.2</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077BF46D-D420-42A9-B062-D6A06401DD03}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -530,18 +597,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
